--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3852,28 +3852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1591.315921928739</v>
+        <v>1746.631290901421</v>
       </c>
       <c r="AB2" t="n">
-        <v>2177.308648286633</v>
+        <v>2389.817988145544</v>
       </c>
       <c r="AC2" t="n">
-        <v>1969.509366766037</v>
+        <v>2161.737113487545</v>
       </c>
       <c r="AD2" t="n">
-        <v>1591315.921928739</v>
+        <v>1746631.290901421</v>
       </c>
       <c r="AE2" t="n">
-        <v>2177308.648286633</v>
+        <v>2389817.988145544</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.378784563115786e-07</v>
+        <v>1.207939553904909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.27314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1969509.366766037</v>
+        <v>2161737.113487545</v>
       </c>
     </row>
     <row r="3">
@@ -3958,28 +3958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>952.7807315924859</v>
+        <v>1073.477199020111</v>
       </c>
       <c r="AB3" t="n">
-        <v>1303.636630684127</v>
+        <v>1468.778862170944</v>
       </c>
       <c r="AC3" t="n">
-        <v>1179.219380317136</v>
+        <v>1328.600669009429</v>
       </c>
       <c r="AD3" t="n">
-        <v>952780.7315924859</v>
+        <v>1073477.199020111</v>
       </c>
       <c r="AE3" t="n">
-        <v>1303636.630684127</v>
+        <v>1468778.862170944</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178932906310788e-06</v>
+        <v>1.699625617779705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1179219.380317135</v>
+        <v>1328600.669009429</v>
       </c>
     </row>
     <row r="4">
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>819.8738021852062</v>
+        <v>923.303623530416</v>
       </c>
       <c r="AB4" t="n">
-        <v>1121.787506429182</v>
+        <v>1263.304750995375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1014.725681254234</v>
+        <v>1142.73671861973</v>
       </c>
       <c r="AD4" t="n">
-        <v>819873.8021852062</v>
+        <v>923303.6235304159</v>
       </c>
       <c r="AE4" t="n">
-        <v>1121787.506429182</v>
+        <v>1263304.750995375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.309126004793702e-06</v>
+        <v>1.887320374839393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.21759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>1014725.681254234</v>
+        <v>1142736.71861973</v>
       </c>
     </row>
     <row r="5">
@@ -4170,28 +4170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>746.4530157596305</v>
+        <v>849.8827475962893</v>
       </c>
       <c r="AB5" t="n">
-        <v>1021.329947345216</v>
+        <v>1162.847069441861</v>
       </c>
       <c r="AC5" t="n">
-        <v>923.8556506161721</v>
+        <v>1051.866577200441</v>
       </c>
       <c r="AD5" t="n">
-        <v>746453.0157596305</v>
+        <v>849882.7475962893</v>
       </c>
       <c r="AE5" t="n">
-        <v>1021329.947345216</v>
+        <v>1162847.069441861</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.381653906772283e-06</v>
+        <v>1.991881270159857e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.99652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>923855.650616172</v>
+        <v>1051866.577200441</v>
       </c>
     </row>
     <row r="6">
@@ -4276,28 +4276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>712.6390870383818</v>
+        <v>807.4355405881079</v>
       </c>
       <c r="AB6" t="n">
-        <v>975.0642383035519</v>
+        <v>1104.768928174659</v>
       </c>
       <c r="AC6" t="n">
-        <v>882.0054759111139</v>
+        <v>999.3313322225974</v>
       </c>
       <c r="AD6" t="n">
-        <v>712639.0870383818</v>
+        <v>807435.5405881079</v>
       </c>
       <c r="AE6" t="n">
-        <v>975064.2383035519</v>
+        <v>1104768.928174659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42618950480113e-06</v>
+        <v>2.056086657003994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.30787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>882005.4759111139</v>
+        <v>999331.3322225974</v>
       </c>
     </row>
     <row r="7">
@@ -4382,28 +4382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>679.3550936989816</v>
+        <v>774.2367985947284</v>
       </c>
       <c r="AB7" t="n">
-        <v>929.5236102304322</v>
+        <v>1059.344944754188</v>
       </c>
       <c r="AC7" t="n">
-        <v>840.8111814646195</v>
+        <v>958.2425500268154</v>
       </c>
       <c r="AD7" t="n">
-        <v>679355.0936989816</v>
+        <v>774236.7985947283</v>
       </c>
       <c r="AE7" t="n">
-        <v>929523.6102304321</v>
+        <v>1059344.944754188</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457070320415472e-06</v>
+        <v>2.10060642995724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.85648148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>840811.1814646195</v>
+        <v>958242.5500268154</v>
       </c>
     </row>
     <row r="8">
@@ -4488,28 +4488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>659.5481758625037</v>
+        <v>754.4298807582505</v>
       </c>
       <c r="AB8" t="n">
-        <v>902.4229114270191</v>
+        <v>1032.244245950775</v>
       </c>
       <c r="AC8" t="n">
-        <v>816.2969353189347</v>
+        <v>933.7283038811306</v>
       </c>
       <c r="AD8" t="n">
-        <v>659548.1758625037</v>
+        <v>754429.8807582505</v>
       </c>
       <c r="AE8" t="n">
-        <v>902422.9114270192</v>
+        <v>1032244.245950775</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479285601035993e-06</v>
+        <v>2.132633409479728e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.54398148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>816296.9353189347</v>
+        <v>933728.3038811306</v>
       </c>
     </row>
     <row r="9">
@@ -4594,28 +4594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>642.0069938685738</v>
+        <v>728.255420477388</v>
       </c>
       <c r="AB9" t="n">
-        <v>878.4222923605912</v>
+        <v>996.4311946588086</v>
       </c>
       <c r="AC9" t="n">
-        <v>794.5869016511264</v>
+        <v>901.3331999405362</v>
       </c>
       <c r="AD9" t="n">
-        <v>642006.9938685738</v>
+        <v>728255.4204773881</v>
       </c>
       <c r="AE9" t="n">
-        <v>878422.2923605912</v>
+        <v>996431.1946588086</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.497667038901673e-06</v>
+        <v>2.159133274332851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.29513888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>794586.9016511263</v>
+        <v>901333.1999405363</v>
       </c>
     </row>
     <row r="10">
@@ -4700,28 +4700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>627.8094683081771</v>
+        <v>714.0578949169915</v>
       </c>
       <c r="AB10" t="n">
-        <v>858.9966115382344</v>
+        <v>977.0055138364518</v>
       </c>
       <c r="AC10" t="n">
-        <v>777.0151805423408</v>
+        <v>883.7614788317509</v>
       </c>
       <c r="AD10" t="n">
-        <v>627809.4683081771</v>
+        <v>714057.8949169915</v>
       </c>
       <c r="AE10" t="n">
-        <v>858996.6115382344</v>
+        <v>977005.5138364518</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.508170717682061e-06</v>
+        <v>2.174276054248921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.15046296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>777015.1805423407</v>
+        <v>883761.4788317509</v>
       </c>
     </row>
     <row r="11">
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>604.455990079599</v>
+        <v>699.2523541207742</v>
       </c>
       <c r="AB11" t="n">
-        <v>827.0433523431481</v>
+        <v>956.7479197447061</v>
       </c>
       <c r="AC11" t="n">
-        <v>748.1114955581525</v>
+        <v>865.4372410884095</v>
       </c>
       <c r="AD11" t="n">
-        <v>604455.990079599</v>
+        <v>699252.3541207742</v>
       </c>
       <c r="AE11" t="n">
-        <v>827043.3523431481</v>
+        <v>956747.9197447061</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.519987356309998e-06</v>
+        <v>2.191311681654499e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.99421296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>748111.4955581524</v>
+        <v>865437.2410884094</v>
       </c>
     </row>
     <row r="12">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>596.5421823924729</v>
+        <v>691.3385464336479</v>
       </c>
       <c r="AB12" t="n">
-        <v>816.2153315330673</v>
+        <v>945.9198989346256</v>
       </c>
       <c r="AC12" t="n">
-        <v>738.3168858569635</v>
+        <v>855.6426313872205</v>
       </c>
       <c r="AD12" t="n">
-        <v>596542.1823924729</v>
+        <v>691338.546433648</v>
       </c>
       <c r="AE12" t="n">
-        <v>816215.3315330674</v>
+        <v>945919.8989346257</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.524924085336781e-06</v>
+        <v>2.198428788215053e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.93055555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>738316.8858569635</v>
+        <v>855642.6313872205</v>
       </c>
     </row>
     <row r="13">
@@ -5018,28 +5018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>593.745937100631</v>
+        <v>688.5423011418063</v>
       </c>
       <c r="AB13" t="n">
-        <v>812.3893853631337</v>
+        <v>942.0939527646919</v>
       </c>
       <c r="AC13" t="n">
-        <v>734.856082619739</v>
+        <v>852.1818281499958</v>
       </c>
       <c r="AD13" t="n">
-        <v>593745.937100631</v>
+        <v>688542.3011418063</v>
       </c>
       <c r="AE13" t="n">
-        <v>812389.3853631336</v>
+        <v>942093.9527646919</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.527970152183093e-06</v>
+        <v>2.202820194390713e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.89004629629629</v>
       </c>
       <c r="AH13" t="n">
-        <v>734856.082619739</v>
+        <v>852181.8281499958</v>
       </c>
     </row>
     <row r="14">
@@ -5124,28 +5124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>595.2580788715909</v>
+        <v>690.0544429127661</v>
       </c>
       <c r="AB14" t="n">
-        <v>814.4583644451478</v>
+        <v>944.1629318467059</v>
       </c>
       <c r="AC14" t="n">
-        <v>736.727601241996</v>
+        <v>854.0533467722528</v>
       </c>
       <c r="AD14" t="n">
-        <v>595258.0788715909</v>
+        <v>690054.4429127661</v>
       </c>
       <c r="AE14" t="n">
-        <v>814458.3644451478</v>
+        <v>944162.9318467058</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.527655041819681e-06</v>
+        <v>2.20236591099323e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.89583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>736727.601241996</v>
+        <v>854053.3467722528</v>
       </c>
     </row>
   </sheetData>
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.856936801241</v>
+        <v>1332.53571368129</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.960706649846</v>
+        <v>1823.234150785427</v>
       </c>
       <c r="AC2" t="n">
-        <v>1482.540597102983</v>
+        <v>1649.227242359667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197856.936801241</v>
+        <v>1332535.713681289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638960.706649846</v>
+        <v>1823234.150785427</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.931440591263474e-07</v>
+        <v>1.453925541521425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.6550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1482540.597102983</v>
+        <v>1649227.242359667</v>
       </c>
     </row>
     <row r="3">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>795.7776420560651</v>
+        <v>896.701473370081</v>
       </c>
       <c r="AB3" t="n">
-        <v>1088.818077092933</v>
+        <v>1226.906515541968</v>
       </c>
       <c r="AC3" t="n">
-        <v>984.9028079809513</v>
+        <v>1109.812279672752</v>
       </c>
       <c r="AD3" t="n">
-        <v>795777.6420560651</v>
+        <v>896701.4733700809</v>
       </c>
       <c r="AE3" t="n">
-        <v>1088818.077092933</v>
+        <v>1226906.515541968</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306136560473551e-06</v>
+        <v>1.912134789043577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>984902.8079809513</v>
+        <v>1109812.279672752</v>
       </c>
     </row>
     <row r="4">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>695.036826671611</v>
+        <v>787.5432344306237</v>
       </c>
       <c r="AB4" t="n">
-        <v>950.9800491128157</v>
+        <v>1077.551397303378</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.2198479343695</v>
+        <v>974.7114042976272</v>
       </c>
       <c r="AD4" t="n">
-        <v>695036.8266716111</v>
+        <v>787543.2344306237</v>
       </c>
       <c r="AE4" t="n">
-        <v>950980.0491128156</v>
+        <v>1077551.397303378</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424031670337018e-06</v>
+        <v>2.084728794793111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.07754629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>860219.8479343695</v>
+        <v>974711.4042976272</v>
       </c>
     </row>
     <row r="5">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>644.7552648635883</v>
+        <v>737.1763317680294</v>
       </c>
       <c r="AB5" t="n">
-        <v>882.1825979811291</v>
+        <v>1008.637179049494</v>
       </c>
       <c r="AC5" t="n">
-        <v>797.9883289808622</v>
+        <v>912.3742623121811</v>
       </c>
       <c r="AD5" t="n">
-        <v>644755.2648635883</v>
+        <v>737176.3317680294</v>
       </c>
       <c r="AE5" t="n">
-        <v>882182.5979811291</v>
+        <v>1008637.179049494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.485098077473671e-06</v>
+        <v>2.174127717586879e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.16898148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>797988.3289808622</v>
+        <v>912374.2623121812</v>
       </c>
     </row>
     <row r="6">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>606.9889855590699</v>
+        <v>699.4953038095315</v>
       </c>
       <c r="AB6" t="n">
-        <v>830.5091085060338</v>
+        <v>957.0803342270478</v>
       </c>
       <c r="AC6" t="n">
-        <v>751.246484817072</v>
+        <v>865.7379303991033</v>
       </c>
       <c r="AD6" t="n">
-        <v>606988.9855590699</v>
+        <v>699495.3038095315</v>
       </c>
       <c r="AE6" t="n">
-        <v>830509.1085060339</v>
+        <v>957080.3342270479</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524812973929982e-06</v>
+        <v>2.2322688319661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.61921296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>751246.4848170719</v>
+        <v>865737.9303991033</v>
       </c>
     </row>
     <row r="7">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>585.4127314710398</v>
+        <v>669.5017156750495</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.9875257856409</v>
+        <v>916.0417837177295</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.5424005177116</v>
+        <v>828.6160415524269</v>
       </c>
       <c r="AD7" t="n">
-        <v>585412.7314710398</v>
+        <v>669501.7156750495</v>
       </c>
       <c r="AE7" t="n">
-        <v>800987.5257856408</v>
+        <v>916041.7837177295</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550782495826174e-06</v>
+        <v>2.270287235075906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.27199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>724542.4005177116</v>
+        <v>828616.0415524269</v>
       </c>
     </row>
     <row r="8">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>567.3051493209498</v>
+        <v>651.3941335249594</v>
       </c>
       <c r="AB8" t="n">
-        <v>776.2119330377432</v>
+        <v>891.2661909698318</v>
       </c>
       <c r="AC8" t="n">
-        <v>702.1313555689105</v>
+        <v>806.2049966036255</v>
       </c>
       <c r="AD8" t="n">
-        <v>567305.1493209498</v>
+        <v>651394.1335249594</v>
       </c>
       <c r="AE8" t="n">
-        <v>776211.9330377432</v>
+        <v>891266.1909698318</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.569634847495585e-06</v>
+        <v>2.297886368714195e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.02893518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>702131.3555689105</v>
+        <v>806204.9966036256</v>
       </c>
     </row>
     <row r="9">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>546.368405670285</v>
+        <v>638.789383066175</v>
       </c>
       <c r="AB9" t="n">
-        <v>747.565356710963</v>
+        <v>874.0198153097792</v>
       </c>
       <c r="AC9" t="n">
-        <v>676.2187682810359</v>
+        <v>790.6045908311282</v>
       </c>
       <c r="AD9" t="n">
-        <v>546368.405670285</v>
+        <v>638789.383066175</v>
       </c>
       <c r="AE9" t="n">
-        <v>747565.356710963</v>
+        <v>874019.8153097793</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.579033858558433e-06</v>
+        <v>2.31164616732925e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.91319444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>676218.7682810358</v>
+        <v>790604.5908311282</v>
       </c>
     </row>
     <row r="10">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>546.2459058474304</v>
+        <v>638.6668832433205</v>
       </c>
       <c r="AB10" t="n">
-        <v>747.3977470490225</v>
+        <v>873.8522056478388</v>
       </c>
       <c r="AC10" t="n">
-        <v>676.0671550499893</v>
+        <v>790.4529776000818</v>
       </c>
       <c r="AD10" t="n">
-        <v>546245.9058474305</v>
+        <v>638666.8832433205</v>
       </c>
       <c r="AE10" t="n">
-        <v>747397.7470490226</v>
+        <v>873852.2056478388</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.581967653919091e-06</v>
+        <v>2.315941133370943e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.87268518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>676067.1550499893</v>
+        <v>790452.9776000818</v>
       </c>
     </row>
     <row r="11">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>548.3228298296324</v>
+        <v>640.7438072255226</v>
       </c>
       <c r="AB11" t="n">
-        <v>750.2394860688906</v>
+        <v>876.6939446677071</v>
       </c>
       <c r="AC11" t="n">
-        <v>678.637682486207</v>
+        <v>793.0235050362994</v>
       </c>
       <c r="AD11" t="n">
-        <v>548322.8298296324</v>
+        <v>640743.8072255226</v>
       </c>
       <c r="AE11" t="n">
-        <v>750239.4860688907</v>
+        <v>876693.9446677071</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.581478688025648e-06</v>
+        <v>2.315225305697328e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.87847222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>678637.682486207</v>
+        <v>793023.5050362995</v>
       </c>
     </row>
   </sheetData>
@@ -6672,28 +6672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.1997218136391</v>
+        <v>669.4071866245173</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.381879523085</v>
+        <v>915.9124449004638</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.1398194423184</v>
+        <v>828.4990466503529</v>
       </c>
       <c r="AD2" t="n">
-        <v>576199.7218136392</v>
+        <v>669407.1866245173</v>
       </c>
       <c r="AE2" t="n">
-        <v>788381.879523085</v>
+        <v>915912.4449004638</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480798311210179e-06</v>
+        <v>2.290977766694339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>713139.8194423184</v>
+        <v>828499.0466503529</v>
       </c>
     </row>
     <row r="3">
@@ -6778,28 +6778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.4950357078125</v>
+        <v>533.8498709298792</v>
       </c>
       <c r="AB3" t="n">
-        <v>613.6506940599652</v>
+        <v>730.4369452003648</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.0847330830397</v>
+        <v>660.7250683251326</v>
       </c>
       <c r="AD3" t="n">
-        <v>448495.0357078125</v>
+        <v>533849.8709298793</v>
       </c>
       <c r="AE3" t="n">
-        <v>613650.6940599652</v>
+        <v>730436.9452003648</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.697589220932917e-06</v>
+        <v>2.626380063169363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.66550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>555084.7330830398</v>
+        <v>660725.0683251326</v>
       </c>
     </row>
     <row r="4">
@@ -6884,28 +6884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.5597405211543</v>
+        <v>512.1473765175322</v>
       </c>
       <c r="AB4" t="n">
-        <v>594.5838084037448</v>
+        <v>700.7426348989112</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.837564233307</v>
+        <v>633.8647413226236</v>
       </c>
       <c r="AD4" t="n">
-        <v>434559.7405211543</v>
+        <v>512147.3765175322</v>
       </c>
       <c r="AE4" t="n">
-        <v>594583.8084037448</v>
+        <v>700742.6348989112</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72638555262148e-06</v>
+        <v>2.670931542706734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.32407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>537837.564233307</v>
+        <v>633864.7413226236</v>
       </c>
     </row>
   </sheetData>
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>766.146648168252</v>
+        <v>870.340448474911</v>
       </c>
       <c r="AB2" t="n">
-        <v>1048.275644028435</v>
+        <v>1190.838198314057</v>
       </c>
       <c r="AC2" t="n">
-        <v>948.2296878264676</v>
+        <v>1077.186272018871</v>
       </c>
       <c r="AD2" t="n">
-        <v>766146.648168252</v>
+        <v>870340.448474911</v>
       </c>
       <c r="AE2" t="n">
-        <v>1048275.644028435</v>
+        <v>1190838.198314057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283993800242107e-06</v>
+        <v>1.940492085819518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.1400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>948229.6878264677</v>
+        <v>1077186.272018871</v>
       </c>
     </row>
     <row r="3">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.6677010465351</v>
+        <v>662.7546054783268</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.3397481864561</v>
+        <v>906.8100898850795</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.342410815711</v>
+        <v>820.2654076224014</v>
       </c>
       <c r="AD3" t="n">
-        <v>566667.701046535</v>
+        <v>662754.6054783268</v>
       </c>
       <c r="AE3" t="n">
-        <v>775339.748186456</v>
+        <v>906810.0898850795</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.540630168916001e-06</v>
+        <v>2.328345081878571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.78819444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>701342.410815711</v>
+        <v>820265.4076224014</v>
       </c>
     </row>
     <row r="4">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.4076628834379</v>
+        <v>592.5584426580566</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.1528172526764</v>
+        <v>810.764603078246</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.2856010096428</v>
+        <v>733.3863672757246</v>
       </c>
       <c r="AD4" t="n">
-        <v>504407.6628834379</v>
+        <v>592558.4426580566</v>
       </c>
       <c r="AE4" t="n">
-        <v>690152.8172526765</v>
+        <v>810764.603078246</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.635107150739678e-06</v>
+        <v>2.471127574665056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.52662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>624285.6010096428</v>
+        <v>733386.3672757247</v>
       </c>
     </row>
     <row r="5">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.7856257978019</v>
+        <v>557.9150295692272</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.7273716307238</v>
+        <v>763.3639569305902</v>
       </c>
       <c r="AC5" t="n">
-        <v>591.3365487944154</v>
+        <v>690.5095722691765</v>
       </c>
       <c r="AD5" t="n">
-        <v>477785.6257978019</v>
+        <v>557915.0295692271</v>
       </c>
       <c r="AE5" t="n">
-        <v>653727.3716307238</v>
+        <v>763363.9569305902</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.673849092948528e-06</v>
+        <v>2.52967803825092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>591336.5487944154</v>
+        <v>690509.5722691765</v>
       </c>
     </row>
     <row r="6">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>477.5630389758055</v>
+        <v>557.6924427472308</v>
       </c>
       <c r="AB6" t="n">
-        <v>653.422818521031</v>
+        <v>763.0594038208974</v>
       </c>
       <c r="AC6" t="n">
-        <v>591.0610618060687</v>
+        <v>690.2340852808297</v>
       </c>
       <c r="AD6" t="n">
-        <v>477563.0389758055</v>
+        <v>557692.4427472308</v>
       </c>
       <c r="AE6" t="n">
-        <v>653422.8185210309</v>
+        <v>763059.4038208973</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.675473006693809e-06</v>
+        <v>2.532132249299429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>591061.0618060686</v>
+        <v>690234.0852808297</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.7596704702061</v>
+        <v>542.8213471327382</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.063464302484</v>
+        <v>742.7121147347127</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.0265301655714</v>
+        <v>671.8287129074312</v>
       </c>
       <c r="AD2" t="n">
-        <v>459759.6704702061</v>
+        <v>542821.3471327382</v>
       </c>
       <c r="AE2" t="n">
-        <v>629063.4643024841</v>
+        <v>742712.1147347128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.647426258955153e-06</v>
+        <v>2.603737417253544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>569026.5301655715</v>
+        <v>671828.7129074312</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.4694038064766</v>
+        <v>484.5309909604576</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.3081498680975</v>
+        <v>662.9566778307778</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.882951003516</v>
+        <v>599.6850229641489</v>
       </c>
       <c r="AD3" t="n">
-        <v>401469.4038064766</v>
+        <v>484530.9909604576</v>
       </c>
       <c r="AE3" t="n">
-        <v>549308.1498680975</v>
+        <v>662956.6778307778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.756100354997828e-06</v>
+        <v>2.775495520910323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.74652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>496882.951003516</v>
+        <v>599685.0229641489</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1286.312937451437</v>
+        <v>1430.288701688351</v>
       </c>
       <c r="AB2" t="n">
-        <v>1759.990109142775</v>
+        <v>1956.984101534154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1592.01912328782</v>
+        <v>1770.212285528171</v>
       </c>
       <c r="AD2" t="n">
-        <v>1286312.937451437</v>
+        <v>1430288.701688351</v>
       </c>
       <c r="AE2" t="n">
-        <v>1759990.109142775</v>
+        <v>1956984.101534154</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.514332405592955e-07</v>
+        <v>1.387081476223162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.7488425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1592019.12328782</v>
+        <v>1770212.285528171</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>832.6900081198521</v>
+        <v>942.7690417470048</v>
       </c>
       <c r="AB3" t="n">
-        <v>1139.323204800066</v>
+        <v>1289.938194952956</v>
       </c>
       <c r="AC3" t="n">
-        <v>1030.587797184108</v>
+        <v>1166.828304066272</v>
       </c>
       <c r="AD3" t="n">
-        <v>832690.0081198522</v>
+        <v>942769.0417470048</v>
       </c>
       <c r="AE3" t="n">
-        <v>1139323.204800066</v>
+        <v>1289938.194952956</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.271413306692729e-06</v>
+        <v>1.853576027363124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.50810185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1030587.797184108</v>
+        <v>1166828.304066272</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>723.0469093384597</v>
+        <v>816.1776671692829</v>
       </c>
       <c r="AB4" t="n">
-        <v>989.3046799352327</v>
+        <v>1116.730291438427</v>
       </c>
       <c r="AC4" t="n">
-        <v>894.8868297800523</v>
+        <v>1010.151119764351</v>
       </c>
       <c r="AD4" t="n">
-        <v>723046.9093384597</v>
+        <v>816177.6671692829</v>
       </c>
       <c r="AE4" t="n">
-        <v>989304.6799352327</v>
+        <v>1116730.291438427</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394548829365985e-06</v>
+        <v>2.033093617546043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>894886.8297800523</v>
+        <v>1010151.119764351</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.6791188250573</v>
+        <v>762.7245358013087</v>
       </c>
       <c r="AB5" t="n">
-        <v>916.2845145340448</v>
+        <v>1043.593358915041</v>
       </c>
       <c r="AC5" t="n">
-        <v>828.8356064803078</v>
+        <v>943.9942734326673</v>
       </c>
       <c r="AD5" t="n">
-        <v>669679.1188250573</v>
+        <v>762724.5358013087</v>
       </c>
       <c r="AE5" t="n">
-        <v>916284.5145340448</v>
+        <v>1043593.358915041</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458674062205446e-06</v>
+        <v>2.126580915275758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.3599537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>828835.6064803078</v>
+        <v>943994.2734326674</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>631.4379124295989</v>
+        <v>724.5685807518709</v>
       </c>
       <c r="AB6" t="n">
-        <v>863.9612088608206</v>
+        <v>991.3866978944666</v>
       </c>
       <c r="AC6" t="n">
-        <v>781.5059636643156</v>
+        <v>896.7701428673873</v>
       </c>
       <c r="AD6" t="n">
-        <v>631437.9124295989</v>
+        <v>724568.5807518709</v>
       </c>
       <c r="AE6" t="n">
-        <v>863961.2088608206</v>
+        <v>991386.6978944666</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499862813777392e-06</v>
+        <v>2.186629431449755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.77546296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>781505.9636643155</v>
+        <v>896770.1428673874</v>
       </c>
     </row>
     <row r="7">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>609.9850124290145</v>
+        <v>694.6415876073972</v>
       </c>
       <c r="AB7" t="n">
-        <v>834.6084046448693</v>
+        <v>950.4392655884412</v>
       </c>
       <c r="AC7" t="n">
-        <v>754.9545498858151</v>
+        <v>859.730676030567</v>
       </c>
       <c r="AD7" t="n">
-        <v>609985.0124290145</v>
+        <v>694641.5876073972</v>
       </c>
       <c r="AE7" t="n">
-        <v>834608.4046448693</v>
+        <v>950439.2655884413</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526945090954763e-06</v>
+        <v>2.226112312019064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.40509259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>754954.5498858151</v>
+        <v>859730.676030567</v>
       </c>
     </row>
     <row r="8">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>587.3701498166786</v>
+        <v>672.0267249950613</v>
       </c>
       <c r="AB8" t="n">
-        <v>803.6657519213466</v>
+        <v>919.4966128649187</v>
       </c>
       <c r="AC8" t="n">
-        <v>726.9650205099396</v>
+        <v>831.7411466546914</v>
       </c>
       <c r="AD8" t="n">
-        <v>587370.1498166786</v>
+        <v>672026.7249950613</v>
       </c>
       <c r="AE8" t="n">
-        <v>803665.7519213465</v>
+        <v>919496.6128649187</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548697059105177e-06</v>
+        <v>2.257824208142326e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.12152777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>726965.0205099395</v>
+        <v>831741.1466546914</v>
       </c>
     </row>
     <row r="9">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>564.6853195569829</v>
+        <v>657.7306470246833</v>
       </c>
       <c r="AB9" t="n">
-        <v>772.6273663759519</v>
+        <v>899.9360882874</v>
       </c>
       <c r="AC9" t="n">
-        <v>698.8888949183496</v>
+        <v>814.0474510894827</v>
       </c>
       <c r="AD9" t="n">
-        <v>564685.319556983</v>
+        <v>657730.6470246833</v>
       </c>
       <c r="AE9" t="n">
-        <v>772627.3663759518</v>
+        <v>899936.0882874001</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560703714792162e-06</v>
+        <v>2.275328546844027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.96527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>698888.8949183496</v>
+        <v>814047.4510894828</v>
       </c>
     </row>
     <row r="10">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>556.0973621167805</v>
+        <v>649.1426895844809</v>
       </c>
       <c r="AB10" t="n">
-        <v>760.8769441323243</v>
+        <v>888.1856660437724</v>
       </c>
       <c r="AC10" t="n">
-        <v>688.2599164818325</v>
+        <v>803.4184726529655</v>
       </c>
       <c r="AD10" t="n">
-        <v>556097.3621167805</v>
+        <v>649142.6895844808</v>
       </c>
       <c r="AE10" t="n">
-        <v>760876.9441323243</v>
+        <v>888185.6660437724</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.566626280377671e-06</v>
+        <v>2.283962974006301e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.89004629629629</v>
       </c>
       <c r="AH10" t="n">
-        <v>688259.9164818325</v>
+        <v>803418.4726529656</v>
       </c>
     </row>
     <row r="11">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>556.6005393239544</v>
+        <v>649.6458667916548</v>
       </c>
       <c r="AB11" t="n">
-        <v>761.5654133857912</v>
+        <v>888.8741352972394</v>
       </c>
       <c r="AC11" t="n">
-        <v>688.8826791960215</v>
+        <v>804.0412353671545</v>
       </c>
       <c r="AD11" t="n">
-        <v>556600.5393239544</v>
+        <v>649645.8667916548</v>
       </c>
       <c r="AE11" t="n">
-        <v>761565.4133857912</v>
+        <v>888874.1352972394</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.568672257579938e-06</v>
+        <v>2.286945776116905e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.86111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>688882.6791960215</v>
+        <v>804041.2353671545</v>
       </c>
     </row>
   </sheetData>
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>398.1026490908442</v>
+        <v>479.7210386817338</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.7016075354339</v>
+        <v>656.3754889229098</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.7160506057592</v>
+        <v>593.7319334888909</v>
       </c>
       <c r="AD2" t="n">
-        <v>398102.6490908442</v>
+        <v>479721.0386817338</v>
       </c>
       <c r="AE2" t="n">
-        <v>544701.607535434</v>
+        <v>656375.4889229097</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738911767077628e-06</v>
+        <v>2.786145117194644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.44675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>492716.0506057591</v>
+        <v>593731.933488891</v>
       </c>
     </row>
     <row r="3">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.4384037269959</v>
+        <v>473.0567933178855</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.5832930228612</v>
+        <v>647.2571744103369</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.4679752326314</v>
+        <v>585.4838581157634</v>
       </c>
       <c r="AD3" t="n">
-        <v>391438.4037269959</v>
+        <v>473056.7933178855</v>
       </c>
       <c r="AE3" t="n">
-        <v>535583.2930228612</v>
+        <v>647257.1744103369</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.763139388688818e-06</v>
+        <v>2.82496345802783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.15162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>484467.9752326314</v>
+        <v>585483.8581157634</v>
       </c>
     </row>
   </sheetData>
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>963.0779022554004</v>
+        <v>1086.490753730422</v>
       </c>
       <c r="AB2" t="n">
-        <v>1317.725673864235</v>
+        <v>1486.584581843106</v>
       </c>
       <c r="AC2" t="n">
-        <v>1191.96378499023</v>
+        <v>1344.707035786565</v>
       </c>
       <c r="AD2" t="n">
-        <v>963077.9022554004</v>
+        <v>1086490.753730422</v>
       </c>
       <c r="AE2" t="n">
-        <v>1317725.673864234</v>
+        <v>1486584.581843107</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12719405325231e-06</v>
+        <v>1.673706421816488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.73842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1191963.78499023</v>
+        <v>1344707.035786564</v>
       </c>
     </row>
     <row r="3">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.4945821800734</v>
+        <v>774.2077951891766</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.2414880565137</v>
+        <v>1059.305261015172</v>
       </c>
       <c r="AC3" t="n">
-        <v>836.0331776174752</v>
+        <v>958.2066536481548</v>
       </c>
       <c r="AD3" t="n">
-        <v>675494.5821800734</v>
+        <v>774207.7951891767</v>
       </c>
       <c r="AE3" t="n">
-        <v>924241.4880565137</v>
+        <v>1059305.261015172</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415975605654786e-06</v>
+        <v>2.102501745357793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.87615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>836033.1776174752</v>
+        <v>958206.6536481548</v>
       </c>
     </row>
     <row r="4">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.2622548931146</v>
+        <v>693.6570037342242</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.4100311971205</v>
+        <v>949.0921144963914</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.6340562899213</v>
+        <v>858.5120951480039</v>
       </c>
       <c r="AD4" t="n">
-        <v>603262.2548931146</v>
+        <v>693657.0037342242</v>
       </c>
       <c r="AE4" t="n">
-        <v>825410.0311971204</v>
+        <v>949092.1144963915</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519251815033071e-06</v>
+        <v>2.255850722278458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.32523148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>746634.0562899213</v>
+        <v>858512.0951480039</v>
       </c>
     </row>
     <row r="5">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>555.9658163335768</v>
+        <v>646.4458165207071</v>
       </c>
       <c r="AB5" t="n">
-        <v>760.6969573883546</v>
+        <v>884.4956853402746</v>
       </c>
       <c r="AC5" t="n">
-        <v>688.0971074200944</v>
+        <v>800.0806585288892</v>
       </c>
       <c r="AD5" t="n">
-        <v>555965.8163335768</v>
+        <v>646445.8165207071</v>
       </c>
       <c r="AE5" t="n">
-        <v>760696.9573883546</v>
+        <v>884495.6853402746</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.578530679928248e-06</v>
+        <v>2.34387054155162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>688097.1074200944</v>
+        <v>800080.6585288892</v>
       </c>
     </row>
     <row r="6">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>529.8507156964823</v>
+        <v>612.0975925701906</v>
       </c>
       <c r="AB6" t="n">
-        <v>724.9651245797542</v>
+        <v>837.4989299944847</v>
       </c>
       <c r="AC6" t="n">
-        <v>655.7754705848045</v>
+        <v>757.5692075529411</v>
       </c>
       <c r="AD6" t="n">
-        <v>529850.7156964823</v>
+        <v>612097.5925701907</v>
       </c>
       <c r="AE6" t="n">
-        <v>724965.1245797542</v>
+        <v>837498.9299944846</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60987738846583e-06</v>
+        <v>2.390415488476049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.12152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>655775.4705848044</v>
+        <v>757569.2075529411</v>
       </c>
     </row>
     <row r="7">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>505.8533311672855</v>
+        <v>596.2479904998441</v>
       </c>
       <c r="AB7" t="n">
-        <v>692.1308443770204</v>
+        <v>815.8128052067427</v>
       </c>
       <c r="AC7" t="n">
-        <v>626.074848001418</v>
+        <v>737.9527760782738</v>
       </c>
       <c r="AD7" t="n">
-        <v>505853.3311672856</v>
+        <v>596247.9904998442</v>
       </c>
       <c r="AE7" t="n">
-        <v>692130.8443770204</v>
+        <v>815812.8052067427</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.624487193694954e-06</v>
+        <v>2.412108758381899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.94212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>626074.8480014179</v>
+        <v>737952.7760782738</v>
       </c>
     </row>
     <row r="8">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>506.6310461310531</v>
+        <v>597.0257054636118</v>
       </c>
       <c r="AB8" t="n">
-        <v>693.1949483008099</v>
+        <v>816.8769091305322</v>
       </c>
       <c r="AC8" t="n">
-        <v>627.0373953402002</v>
+        <v>738.9153234170561</v>
       </c>
       <c r="AD8" t="n">
-        <v>506631.0461310531</v>
+        <v>597025.7054636118</v>
       </c>
       <c r="AE8" t="n">
-        <v>693194.9483008098</v>
+        <v>816876.9091305322</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.627118078161501e-06</v>
+        <v>2.416015209284486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.90740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>627037.3953402002</v>
+        <v>738915.3234170561</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1119.106231721298</v>
+        <v>1252.756988813073</v>
       </c>
       <c r="AB2" t="n">
-        <v>1531.210517723559</v>
+        <v>1714.077379831793</v>
       </c>
       <c r="AC2" t="n">
-        <v>1385.073934979481</v>
+        <v>1550.488240423358</v>
       </c>
       <c r="AD2" t="n">
-        <v>1119106.231721298</v>
+        <v>1252756.988813073</v>
       </c>
       <c r="AE2" t="n">
-        <v>1531210.517723559</v>
+        <v>1714077.379831793</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033565102654931e-06</v>
+        <v>1.519798031902628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1385073.934979481</v>
+        <v>1550488.240423358</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>752.4155425018339</v>
+        <v>852.7176159615942</v>
       </c>
       <c r="AB3" t="n">
-        <v>1029.488139482014</v>
+        <v>1166.725861404837</v>
       </c>
       <c r="AC3" t="n">
-        <v>931.2352363455282</v>
+        <v>1055.37518270239</v>
       </c>
       <c r="AD3" t="n">
-        <v>752415.5425018339</v>
+        <v>852717.6159615943</v>
       </c>
       <c r="AE3" t="n">
-        <v>1029488.139482014</v>
+        <v>1166725.861404837</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341413387144299e-06</v>
+        <v>1.972471226546802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.66319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>931235.2363455282</v>
+        <v>1055375.18270239</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>658.8091942639176</v>
+        <v>758.9405860145347</v>
       </c>
       <c r="AB4" t="n">
-        <v>901.4118042022664</v>
+        <v>1038.415991880694</v>
       </c>
       <c r="AC4" t="n">
-        <v>815.3823267486144</v>
+        <v>939.3110270415982</v>
       </c>
       <c r="AD4" t="n">
-        <v>658809.1942639175</v>
+        <v>758940.5860145347</v>
       </c>
       <c r="AE4" t="n">
-        <v>901411.8042022664</v>
+        <v>1038415.991880694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453901687783474e-06</v>
+        <v>2.137878802213148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.82870370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>815382.3267486144</v>
+        <v>939311.0270415982</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>610.8907963074815</v>
+        <v>702.7490227910235</v>
       </c>
       <c r="AB5" t="n">
-        <v>835.8477381077523</v>
+        <v>961.5322160814759</v>
       </c>
       <c r="AC5" t="n">
-        <v>756.0756031024158</v>
+        <v>869.7649308976003</v>
       </c>
       <c r="AD5" t="n">
-        <v>610890.7963074816</v>
+        <v>702749.0227910236</v>
       </c>
       <c r="AE5" t="n">
-        <v>835847.7381077523</v>
+        <v>961532.2160814758</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513628532930262e-06</v>
+        <v>2.225703692462124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.96643518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>756075.6031024158</v>
+        <v>869764.9308976003</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>583.1456712193578</v>
+        <v>666.6454810898042</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.8856339336501</v>
+        <v>912.1337575500203</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.7365488705423</v>
+        <v>825.0809919172144</v>
       </c>
       <c r="AD6" t="n">
-        <v>583145.6712193579</v>
+        <v>666645.4810898042</v>
       </c>
       <c r="AE6" t="n">
-        <v>797885.6339336501</v>
+        <v>912133.7575500202</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5516365252964e-06</v>
+        <v>2.2815922589842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.45717592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>721736.5488705423</v>
+        <v>825080.9919172145</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>560.4397111085315</v>
+        <v>643.939520978978</v>
       </c>
       <c r="AB7" t="n">
-        <v>766.818337593755</v>
+        <v>881.0664612101251</v>
       </c>
       <c r="AC7" t="n">
-        <v>693.6342716901025</v>
+        <v>796.9787147367748</v>
       </c>
       <c r="AD7" t="n">
-        <v>560439.7111085315</v>
+        <v>643939.5209789779</v>
       </c>
       <c r="AE7" t="n">
-        <v>766818.337593755</v>
+        <v>881066.4612101251</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.578017253042594e-06</v>
+        <v>2.320383601692885e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.11574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>693634.2716901025</v>
+        <v>796978.7147367748</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>533.3111733140198</v>
+        <v>625.0840589429902</v>
       </c>
       <c r="AB8" t="n">
-        <v>729.6998753566844</v>
+        <v>855.2675862082103</v>
       </c>
       <c r="AC8" t="n">
-        <v>660.058343392849</v>
+        <v>773.6420481560942</v>
       </c>
       <c r="AD8" t="n">
-        <v>533311.1733140198</v>
+        <v>625084.0589429901</v>
       </c>
       <c r="AE8" t="n">
-        <v>729699.8753566844</v>
+        <v>855267.5862082103</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594416083803741e-06</v>
+        <v>2.344497139052337e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.90740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>660058.343392849</v>
+        <v>773642.0481560943</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>531.2552024110523</v>
+        <v>623.0280880400228</v>
       </c>
       <c r="AB9" t="n">
-        <v>726.8868052642097</v>
+        <v>852.4545161157355</v>
       </c>
       <c r="AC9" t="n">
-        <v>657.5137487618313</v>
+        <v>771.0974535250766</v>
       </c>
       <c r="AD9" t="n">
-        <v>531255.2024110523</v>
+        <v>623028.0880400228</v>
       </c>
       <c r="AE9" t="n">
-        <v>726886.8052642096</v>
+        <v>852454.5161157355</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.596335679377789e-06</v>
+        <v>2.34731979392719e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.88425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>657513.7487618313</v>
+        <v>771097.4535250766</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>533.389919535941</v>
+        <v>625.1628051649114</v>
       </c>
       <c r="AB10" t="n">
-        <v>729.8076194115553</v>
+        <v>855.3753302630812</v>
       </c>
       <c r="AC10" t="n">
-        <v>660.1558045063426</v>
+        <v>773.739509269588</v>
       </c>
       <c r="AD10" t="n">
-        <v>533389.919535941</v>
+        <v>625162.8051649114</v>
       </c>
       <c r="AE10" t="n">
-        <v>729807.6194115552</v>
+        <v>855375.3302630812</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.596225988202129e-06</v>
+        <v>2.347158499362913e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.88425925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>660155.8045063426</v>
+        <v>773739.5092695879</v>
       </c>
     </row>
   </sheetData>
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1486.374169130806</v>
+        <v>1640.679490680139</v>
       </c>
       <c r="AB2" t="n">
-        <v>2033.722712405116</v>
+        <v>2244.850060819253</v>
       </c>
       <c r="AC2" t="n">
-        <v>1839.627071080926</v>
+        <v>2030.604721681512</v>
       </c>
       <c r="AD2" t="n">
-        <v>1486374.169130806</v>
+        <v>1640679.49068014</v>
       </c>
       <c r="AE2" t="n">
-        <v>2033722.712405116</v>
+        <v>2244850.060819253</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.743277707852945e-07</v>
+        <v>1.264953380586249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.04050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1839627.071080926</v>
+        <v>2030604.721681512</v>
       </c>
     </row>
     <row r="3">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>915.1435803596796</v>
+        <v>1026.538925867367</v>
       </c>
       <c r="AB3" t="n">
-        <v>1252.139819933476</v>
+        <v>1404.555846072896</v>
       </c>
       <c r="AC3" t="n">
-        <v>1132.637352908299</v>
+        <v>1270.507007430209</v>
       </c>
       <c r="AD3" t="n">
-        <v>915143.5803596796</v>
+        <v>1026538.925867367</v>
       </c>
       <c r="AE3" t="n">
-        <v>1252139.819933476</v>
+        <v>1404555.846072895</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20847386482724e-06</v>
+        <v>1.748386762655782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.35300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1132637.352908299</v>
+        <v>1270507.007430209</v>
       </c>
     </row>
     <row r="4">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.0151015421129</v>
+        <v>884.9137031874915</v>
       </c>
       <c r="AB4" t="n">
-        <v>1069.987562001307</v>
+        <v>1210.777968338432</v>
       </c>
       <c r="AC4" t="n">
-        <v>967.8694508208764</v>
+        <v>1095.223018377763</v>
       </c>
       <c r="AD4" t="n">
-        <v>782015.1015421129</v>
+        <v>884913.7031874915</v>
       </c>
       <c r="AE4" t="n">
-        <v>1069987.562001307</v>
+        <v>1210777.968338432</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336054993889517e-06</v>
+        <v>1.932967632552419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.92824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>967869.4508208764</v>
+        <v>1095223.018377763</v>
       </c>
     </row>
     <row r="5">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.3005905071868</v>
+        <v>824.1138512979937</v>
       </c>
       <c r="AB5" t="n">
-        <v>986.9152894681355</v>
+        <v>1127.588928683063</v>
       </c>
       <c r="AC5" t="n">
-        <v>892.7254793856043</v>
+        <v>1019.973423910551</v>
       </c>
       <c r="AD5" t="n">
-        <v>721300.5905071868</v>
+        <v>824113.8512979937</v>
       </c>
       <c r="AE5" t="n">
-        <v>986915.2894681355</v>
+        <v>1127588.928683063</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405721701709416e-06</v>
+        <v>2.033759510056143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.79398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>892725.4793856044</v>
+        <v>1019973.423910551</v>
       </c>
     </row>
     <row r="6">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>688.2429035089964</v>
+        <v>782.4742586000252</v>
       </c>
       <c r="AB6" t="n">
-        <v>941.6843037149899</v>
+        <v>1070.615800944522</v>
       </c>
       <c r="AC6" t="n">
-        <v>851.8112754306517</v>
+        <v>968.4377315210902</v>
       </c>
       <c r="AD6" t="n">
-        <v>688242.9035089964</v>
+        <v>782474.2586000252</v>
       </c>
       <c r="AE6" t="n">
-        <v>941684.3037149899</v>
+        <v>1070615.800944522</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450507442450779e-06</v>
+        <v>2.098554288451394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.12268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>851811.2754306517</v>
+        <v>968437.7315210901</v>
       </c>
     </row>
     <row r="7">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>655.9347682316528</v>
+        <v>750.2513746687022</v>
       </c>
       <c r="AB7" t="n">
-        <v>897.4788876941951</v>
+        <v>1026.527029576376</v>
       </c>
       <c r="AC7" t="n">
-        <v>811.8247622721906</v>
+        <v>928.5567306133412</v>
       </c>
       <c r="AD7" t="n">
-        <v>655934.7682316528</v>
+        <v>750251.3746687021</v>
       </c>
       <c r="AE7" t="n">
-        <v>897478.8876941951</v>
+        <v>1026527.029576376</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478670579654568e-06</v>
+        <v>2.139299941059283e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.71759259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>811824.7622721905</v>
+        <v>928556.7306133412</v>
       </c>
     </row>
     <row r="8">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>635.2820232633125</v>
+        <v>721.0167240005836</v>
       </c>
       <c r="AB8" t="n">
-        <v>869.2208908937084</v>
+        <v>986.5268907904946</v>
       </c>
       <c r="AC8" t="n">
-        <v>786.2636690259947</v>
+        <v>892.3741489326364</v>
       </c>
       <c r="AD8" t="n">
-        <v>635282.0232633124</v>
+        <v>721016.7240005836</v>
       </c>
       <c r="AE8" t="n">
-        <v>869220.8908937084</v>
+        <v>986526.8907904946</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.502386905720916e-06</v>
+        <v>2.173612069571188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.39351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>786263.6690259946</v>
+        <v>892374.1489326365</v>
       </c>
     </row>
     <row r="9">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>621.4053756587016</v>
+        <v>707.1400763959729</v>
       </c>
       <c r="AB9" t="n">
-        <v>850.2342494465942</v>
+        <v>967.5402493433803</v>
       </c>
       <c r="AC9" t="n">
-        <v>769.0890859906743</v>
+        <v>875.1995658973162</v>
       </c>
       <c r="AD9" t="n">
-        <v>621405.3756587016</v>
+        <v>707140.0763959729</v>
       </c>
       <c r="AE9" t="n">
-        <v>850234.2494465942</v>
+        <v>967540.2493433803</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.515992030272371e-06</v>
+        <v>2.193295589721992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.20833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>769089.0859906743</v>
+        <v>875199.5658973162</v>
       </c>
     </row>
     <row r="10">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>605.7697697167056</v>
+        <v>691.5044704539768</v>
       </c>
       <c r="AB10" t="n">
-        <v>828.8409236025042</v>
+        <v>946.1469234992903</v>
       </c>
       <c r="AC10" t="n">
-        <v>749.7375091394231</v>
+        <v>855.8479890460648</v>
       </c>
       <c r="AD10" t="n">
-        <v>605769.7697167055</v>
+        <v>691504.4704539768</v>
       </c>
       <c r="AE10" t="n">
-        <v>828840.9236025042</v>
+        <v>946146.9234992904</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529597154823825e-06</v>
+        <v>2.212979109872795e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.02893518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>749737.509139423</v>
+        <v>855847.9890460648</v>
       </c>
     </row>
     <row r="11">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>584.7756036914392</v>
+        <v>679.0068692739168</v>
       </c>
       <c r="AB11" t="n">
-        <v>800.1157794494974</v>
+        <v>929.0471542094811</v>
       </c>
       <c r="AC11" t="n">
-        <v>723.753852428386</v>
+        <v>840.3801977375979</v>
       </c>
       <c r="AD11" t="n">
-        <v>584775.6036914391</v>
+        <v>679006.8692739168</v>
       </c>
       <c r="AE11" t="n">
-        <v>800115.7794494973</v>
+        <v>929047.1542094811</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.538173147731746e-06</v>
+        <v>2.225386620629333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.91898148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>723753.852428386</v>
+        <v>840380.1977375979</v>
       </c>
     </row>
     <row r="12">
@@ -13097,28 +13097,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>582.3311015187378</v>
+        <v>676.5623671012155</v>
       </c>
       <c r="AB12" t="n">
-        <v>796.7711037329831</v>
+        <v>925.7024784929669</v>
       </c>
       <c r="AC12" t="n">
-        <v>720.7283878679739</v>
+        <v>837.3547331771856</v>
       </c>
       <c r="AD12" t="n">
-        <v>582331.1015187379</v>
+        <v>676562.3671012155</v>
       </c>
       <c r="AE12" t="n">
-        <v>796771.1037329831</v>
+        <v>925702.4784929669</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541508256084826e-06</v>
+        <v>2.230211763701319e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.87268518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>720728.3878679739</v>
+        <v>837354.7331771856</v>
       </c>
     </row>
     <row r="13">
@@ -13203,28 +13203,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>581.6892831313197</v>
+        <v>675.9205487137974</v>
       </c>
       <c r="AB13" t="n">
-        <v>795.8929395002885</v>
+        <v>924.8243142602723</v>
       </c>
       <c r="AC13" t="n">
-        <v>719.9340343971364</v>
+        <v>836.5603797063483</v>
       </c>
       <c r="AD13" t="n">
-        <v>581689.2831313197</v>
+        <v>675920.5487137975</v>
       </c>
       <c r="AE13" t="n">
-        <v>795892.9395002886</v>
+        <v>924824.3142602723</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.54129650317352e-06</v>
+        <v>2.229905405411035e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.87847222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>719934.0343971364</v>
+        <v>836560.3797063483</v>
       </c>
     </row>
   </sheetData>
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>822.5664328197663</v>
+        <v>935.8224212299798</v>
       </c>
       <c r="AB2" t="n">
-        <v>1125.471682453867</v>
+        <v>1280.433522298294</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.058244689896</v>
+        <v>1158.23074402988</v>
       </c>
       <c r="AD2" t="n">
-        <v>822566.4328197663</v>
+        <v>935822.4212299798</v>
       </c>
       <c r="AE2" t="n">
-        <v>1125471.682453867</v>
+        <v>1280433.522298294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229667030206582e-06</v>
+        <v>1.846572059647104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018058.244689896</v>
+        <v>1158230.74402988</v>
       </c>
     </row>
     <row r="3">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.4728569957767</v>
+        <v>697.4415072149443</v>
       </c>
       <c r="AB3" t="n">
-        <v>832.5394068695239</v>
+        <v>954.2702391192229</v>
       </c>
       <c r="AC3" t="n">
-        <v>753.0830143542921</v>
+        <v>863.1960268243756</v>
       </c>
       <c r="AD3" t="n">
-        <v>608472.8569957768</v>
+        <v>697441.5072149443</v>
       </c>
       <c r="AE3" t="n">
-        <v>832539.4068695239</v>
+        <v>954270.2391192229</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496263836392211e-06</v>
+        <v>2.246916381646884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>753083.0143542921</v>
+        <v>863196.0268243756</v>
       </c>
     </row>
     <row r="4">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.7773115847918</v>
+        <v>624.7458722954085</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.0741545370968</v>
+        <v>854.8048643172472</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.1105861041134</v>
+        <v>773.2234877929703</v>
       </c>
       <c r="AD4" t="n">
-        <v>535777.3115847919</v>
+        <v>624745.8722954085</v>
       </c>
       <c r="AE4" t="n">
-        <v>733074.1545370967</v>
+        <v>854804.8643172472</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593567375320113e-06</v>
+        <v>2.393035608946052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.79861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>663110.5861041134</v>
+        <v>773223.4877929704</v>
       </c>
     </row>
     <row r="5">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.929561923577</v>
+        <v>582.8024029095457</v>
       </c>
       <c r="AB5" t="n">
-        <v>686.7621701932961</v>
+        <v>797.4159590882361</v>
       </c>
       <c r="AC5" t="n">
-        <v>621.2185525468069</v>
+        <v>721.3116991331817</v>
       </c>
       <c r="AD5" t="n">
-        <v>501929.561923577</v>
+        <v>582802.4029095457</v>
       </c>
       <c r="AE5" t="n">
-        <v>686762.1701932962</v>
+        <v>797415.9590882361</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642992304157535e-06</v>
+        <v>2.467256264130974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>621218.5525468069</v>
+        <v>721311.6991331817</v>
       </c>
     </row>
     <row r="6">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.7934077690483</v>
+        <v>570.6766276250934</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.2109957346451</v>
+        <v>780.8249383925978</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.2968235101731</v>
+        <v>706.3041021670913</v>
       </c>
       <c r="AD6" t="n">
-        <v>481793.4077690482</v>
+        <v>570676.6276250933</v>
       </c>
       <c r="AE6" t="n">
-        <v>659210.9957346451</v>
+        <v>780824.9383925978</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.659715455050382e-06</v>
+        <v>2.492369162524945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.97106481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>596296.8235101731</v>
+        <v>706304.1021670913</v>
       </c>
     </row>
     <row r="7">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>483.3980545389886</v>
+        <v>572.2812743950337</v>
       </c>
       <c r="AB7" t="n">
-        <v>661.4065442372968</v>
+        <v>783.0204868952494</v>
       </c>
       <c r="AC7" t="n">
-        <v>598.2828319452034</v>
+        <v>708.2901106021217</v>
       </c>
       <c r="AD7" t="n">
-        <v>483398.0545389886</v>
+        <v>572281.2743950337</v>
       </c>
       <c r="AE7" t="n">
-        <v>661406.5442372968</v>
+        <v>783020.4868952495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65851276269165e-06</v>
+        <v>2.490563097914419e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.98263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>598282.8319452034</v>
+        <v>708290.1106021217</v>
       </c>
     </row>
   </sheetData>
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.2289858501441</v>
+        <v>740.129548692026</v>
       </c>
       <c r="AB2" t="n">
-        <v>873.2530551158251</v>
+        <v>1012.677900731641</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.9110091539304</v>
+        <v>916.0293431881731</v>
       </c>
       <c r="AD2" t="n">
-        <v>638228.9858501441</v>
+        <v>740129.5486920259</v>
       </c>
       <c r="AE2" t="n">
-        <v>873253.055115825</v>
+        <v>1012677.900731641</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410063837734065e-06</v>
+        <v>2.162680826840314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.48495370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>789911.0091539305</v>
+        <v>916029.3431881731</v>
       </c>
     </row>
     <row r="3">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.0529584653569</v>
+        <v>573.6349678947123</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.3532979674261</v>
+        <v>784.872670062252</v>
       </c>
       <c r="AC3" t="n">
-        <v>612.7076498807387</v>
+        <v>709.9655240072211</v>
       </c>
       <c r="AD3" t="n">
-        <v>495052.9584653569</v>
+        <v>573634.9678947123</v>
       </c>
       <c r="AE3" t="n">
-        <v>677353.2979674261</v>
+        <v>784872.6700622521</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640103021957392e-06</v>
+        <v>2.515502677758246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.0474537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>612707.6498807387</v>
+        <v>709965.5240072211</v>
       </c>
     </row>
     <row r="4">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.0879460903868</v>
+        <v>528.5846146651705</v>
       </c>
       <c r="AB4" t="n">
-        <v>615.8301843196496</v>
+        <v>723.232789292278</v>
       </c>
       <c r="AC4" t="n">
-        <v>557.0562158512737</v>
+        <v>654.2084669458172</v>
       </c>
       <c r="AD4" t="n">
-        <v>450087.9460903868</v>
+        <v>528584.6146651705</v>
       </c>
       <c r="AE4" t="n">
-        <v>615830.1843196496</v>
+        <v>723232.789292278</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707933559421584e-06</v>
+        <v>2.61953754406885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.21412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>557056.2158512737</v>
+        <v>654208.4669458172</v>
       </c>
     </row>
     <row r="5">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.8118888211628</v>
+        <v>528.3085573959467</v>
       </c>
       <c r="AB5" t="n">
-        <v>615.4524705851102</v>
+        <v>722.8550755577386</v>
       </c>
       <c r="AC5" t="n">
-        <v>556.7145505854342</v>
+        <v>653.8668016799777</v>
       </c>
       <c r="AD5" t="n">
-        <v>449811.8888211628</v>
+        <v>528308.5573959467</v>
       </c>
       <c r="AE5" t="n">
-        <v>615452.4705851101</v>
+        <v>722855.0755577385</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711751637168029e-06</v>
+        <v>2.625393508399438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.16782407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>556714.5505854342</v>
+        <v>653866.8016799777</v>
       </c>
     </row>
   </sheetData>
@@ -26595,28 +26595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.8959737997752</v>
+        <v>607.8297540263005</v>
       </c>
       <c r="AB2" t="n">
-        <v>705.8716310769169</v>
+        <v>831.6594850149859</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.5042333039914</v>
+        <v>752.2870710065731</v>
       </c>
       <c r="AD2" t="n">
-        <v>515895.9737997752</v>
+        <v>607829.7540263005</v>
       </c>
       <c r="AE2" t="n">
-        <v>705871.6310769168</v>
+        <v>831659.4850149859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556584492792007e-06</v>
+        <v>2.43213256578938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.94560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>638504.2333039915</v>
+        <v>752287.0710065732</v>
       </c>
     </row>
     <row r="3">
@@ -26701,28 +26701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.5689606473896</v>
+        <v>504.8344807838234</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.4410061508138</v>
+        <v>690.7368083338607</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.521724160304</v>
+        <v>624.8138568016757</v>
       </c>
       <c r="AD3" t="n">
-        <v>420568.9606473896</v>
+        <v>504834.4807838234</v>
       </c>
       <c r="AE3" t="n">
-        <v>575441.0061508138</v>
+        <v>690736.8083338607</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.738575836773438e-06</v>
+        <v>2.716490450914578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.54398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>520521.7241603039</v>
+        <v>624813.8568016756</v>
       </c>
     </row>
     <row r="4">
@@ -26807,28 +26807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.7629207396094</v>
+        <v>503.8578486754511</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.338146789018</v>
+        <v>689.4005371972179</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.5241201481251</v>
+        <v>623.6051175068457</v>
       </c>
       <c r="AD4" t="n">
-        <v>419762.9207396094</v>
+        <v>503857.8486754511</v>
       </c>
       <c r="AE4" t="n">
-        <v>574338.1467890179</v>
+        <v>689400.5371972179</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74431513653277e-06</v>
+        <v>2.72545799357875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.47453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>519524.1201481251</v>
+        <v>623605.1175068456</v>
       </c>
     </row>
   </sheetData>
@@ -27104,28 +27104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.5323883913969</v>
+        <v>455.86278059223</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.2422722986185</v>
+        <v>623.7315676527892</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.1180975389116</v>
+        <v>564.2035022487595</v>
       </c>
       <c r="AD2" t="n">
-        <v>368532.3883913968</v>
+        <v>455862.78059223</v>
       </c>
       <c r="AE2" t="n">
-        <v>504242.2722986185</v>
+        <v>623731.5676527892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75196251386387e-06</v>
+        <v>2.855131494922162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.88078703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>456118.0975389116</v>
+        <v>564203.5022487595</v>
       </c>
     </row>
   </sheetData>
@@ -27401,28 +27401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1037.366767845564</v>
+        <v>1161.824702433882</v>
       </c>
       <c r="AB2" t="n">
-        <v>1419.37097715814</v>
+        <v>1589.659813958436</v>
       </c>
       <c r="AC2" t="n">
-        <v>1283.908203197844</v>
+        <v>1437.944912415804</v>
       </c>
       <c r="AD2" t="n">
-        <v>1037366.767845565</v>
+        <v>1161824.702433882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1419370.97715814</v>
+        <v>1589659.813958436</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080497897486717e-06</v>
+        <v>1.596306853339595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.67013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1283908.203197844</v>
+        <v>1437944.912415804</v>
       </c>
     </row>
     <row r="3">
@@ -27507,28 +27507,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.4045566007201</v>
+        <v>815.8003120707823</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.2163198795362</v>
+        <v>1116.213977544926</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.6658500524782</v>
+        <v>1009.684082144195</v>
       </c>
       <c r="AD3" t="n">
-        <v>716404.55660072</v>
+        <v>815800.3120707823</v>
       </c>
       <c r="AE3" t="n">
-        <v>980216.3198795362</v>
+        <v>1116213.977544926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.379288303466587e-06</v>
+        <v>2.037734063783242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.24074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>886665.8500524781</v>
+        <v>1009684.082144195</v>
       </c>
     </row>
     <row r="4">
@@ -27613,28 +27613,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>630.3123749048998</v>
+        <v>721.5815269363329</v>
       </c>
       <c r="AB4" t="n">
-        <v>862.4211987643163</v>
+        <v>987.2996790845338</v>
       </c>
       <c r="AC4" t="n">
-        <v>780.1129299700038</v>
+        <v>893.0731833965077</v>
       </c>
       <c r="AD4" t="n">
-        <v>630312.3749048997</v>
+        <v>721581.5269363329</v>
       </c>
       <c r="AE4" t="n">
-        <v>862421.1987643163</v>
+        <v>987299.6790845337</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487471036666195e-06</v>
+        <v>2.197561157219734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>780112.9299700039</v>
+        <v>893073.1833965078</v>
       </c>
     </row>
     <row r="5">
@@ -27719,28 +27719,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>584.1819590490886</v>
+        <v>675.3657702259502</v>
       </c>
       <c r="AB5" t="n">
-        <v>799.3035286600801</v>
+        <v>924.0652418581</v>
       </c>
       <c r="AC5" t="n">
-        <v>723.0191217143097</v>
+        <v>835.8737521088748</v>
       </c>
       <c r="AD5" t="n">
-        <v>584181.9590490886</v>
+        <v>675365.7702259502</v>
       </c>
       <c r="AE5" t="n">
-        <v>799303.5286600802</v>
+        <v>924065.2418580999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.54458132746435e-06</v>
+        <v>2.281934804599675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.75231481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>723019.1217143097</v>
+        <v>835873.7521088747</v>
       </c>
     </row>
     <row r="6">
@@ -27825,28 +27825,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>556.3364704649995</v>
+        <v>639.2231755111907</v>
       </c>
       <c r="AB6" t="n">
-        <v>761.204102723073</v>
+        <v>874.6133492706215</v>
       </c>
       <c r="AC6" t="n">
-        <v>688.5558515158503</v>
+        <v>791.1414787437781</v>
       </c>
       <c r="AD6" t="n">
-        <v>556336.4704649994</v>
+        <v>639223.1755111907</v>
       </c>
       <c r="AE6" t="n">
-        <v>761204.102723073</v>
+        <v>874613.3492706214</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.581528528203796e-06</v>
+        <v>2.336519889762061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.27199074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>688555.8515158504</v>
+        <v>791141.4787437781</v>
       </c>
     </row>
     <row r="7">
@@ -27931,28 +27931,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>525.439592063757</v>
+        <v>616.5380623860468</v>
       </c>
       <c r="AB7" t="n">
-        <v>718.9296306204191</v>
+        <v>843.5745766962413</v>
       </c>
       <c r="AC7" t="n">
-        <v>650.3159956980795</v>
+        <v>763.0650030607057</v>
       </c>
       <c r="AD7" t="n">
-        <v>525439.592063757</v>
+        <v>616538.0623860469</v>
       </c>
       <c r="AE7" t="n">
-        <v>718929.630620419</v>
+        <v>843574.5766962413</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.603574983817439e-06</v>
+        <v>2.369090900098837e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.98842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>650315.9956980795</v>
+        <v>763065.0030607057</v>
       </c>
     </row>
     <row r="8">
@@ -28037,28 +28037,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>520.8962476119237</v>
+        <v>611.9947179342136</v>
       </c>
       <c r="AB8" t="n">
-        <v>712.7132263032098</v>
+        <v>837.3581723790319</v>
       </c>
       <c r="AC8" t="n">
-        <v>644.6928762841263</v>
+        <v>757.4418836467524</v>
       </c>
       <c r="AD8" t="n">
-        <v>520896.2476119237</v>
+        <v>611994.7179342136</v>
       </c>
       <c r="AE8" t="n">
-        <v>712713.2263032098</v>
+        <v>837358.1723790319</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.610554514991607e-06</v>
+        <v>2.379402325481837e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.90162037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>644692.8762841263</v>
+        <v>757441.8836467525</v>
       </c>
     </row>
     <row r="9">
@@ -28143,28 +28143,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>521.9431644159177</v>
+        <v>613.0416347382076</v>
       </c>
       <c r="AB9" t="n">
-        <v>714.1456640611441</v>
+        <v>838.7906101369662</v>
       </c>
       <c r="AC9" t="n">
-        <v>645.9886041928823</v>
+        <v>758.7376115555086</v>
       </c>
       <c r="AD9" t="n">
-        <v>521943.1644159177</v>
+        <v>613041.6347382076</v>
       </c>
       <c r="AE9" t="n">
-        <v>714145.6640611441</v>
+        <v>838790.6101369662</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.609668225318697e-06</v>
+        <v>2.378092938131615e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.91319444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>645988.6041928823</v>
+        <v>758737.6115555086</v>
       </c>
     </row>
   </sheetData>
@@ -28440,28 +28440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1379.485121092407</v>
+        <v>1532.836130515983</v>
       </c>
       <c r="AB2" t="n">
-        <v>1887.47240126699</v>
+        <v>2097.294017729387</v>
       </c>
       <c r="AC2" t="n">
-        <v>1707.334684374221</v>
+        <v>1897.131220247935</v>
       </c>
       <c r="AD2" t="n">
-        <v>1379485.121092407</v>
+        <v>1532836.130515983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1887472.40126699</v>
+        <v>2097294.017729387</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.324260936514743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.87731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1707334.684374221</v>
+        <v>1897131.220247935</v>
       </c>
     </row>
     <row r="3">
@@ -28546,28 +28546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.0924197414389</v>
+        <v>979.8838558160535</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.130590341778</v>
+        <v>1340.720320952264</v>
       </c>
       <c r="AC3" t="n">
-        <v>1075.641635754824</v>
+        <v>1212.763855233368</v>
       </c>
       <c r="AD3" t="n">
-        <v>869092.4197414389</v>
+        <v>979883.8558160535</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189130.590341778</v>
+        <v>1340720.320952264</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.239770393977248e-06</v>
+        <v>1.800356152627688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.91898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1075641.635754824</v>
+        <v>1212763.855233368</v>
       </c>
     </row>
     <row r="4">
@@ -28652,28 +28652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>750.5520275029459</v>
+        <v>852.814480736854</v>
       </c>
       <c r="AB4" t="n">
-        <v>1026.938396048056</v>
+        <v>1166.85839606372</v>
       </c>
       <c r="AC4" t="n">
-        <v>928.9288368463198</v>
+        <v>1055.495068439442</v>
       </c>
       <c r="AD4" t="n">
-        <v>750552.0275029459</v>
+        <v>852814.480736854</v>
       </c>
       <c r="AE4" t="n">
-        <v>1026938.396048056</v>
+        <v>1166858.396063719</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.367131633968194e-06</v>
+        <v>1.985306199134605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.59259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>928928.8368463197</v>
+        <v>1055495.068439442</v>
       </c>
     </row>
     <row r="5">
@@ -28758,28 +28758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>695.6842265037213</v>
+        <v>789.5030377514944</v>
       </c>
       <c r="AB5" t="n">
-        <v>951.8658501243738</v>
+        <v>1080.232886667414</v>
       </c>
       <c r="AC5" t="n">
-        <v>861.021109340614</v>
+        <v>977.1369760802535</v>
       </c>
       <c r="AD5" t="n">
-        <v>695684.2265037213</v>
+        <v>789503.0377514944</v>
       </c>
       <c r="AE5" t="n">
-        <v>951865.8501243738</v>
+        <v>1080232.886667414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432200096478238e-06</v>
+        <v>2.079796604286296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.56828703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>861021.1093406139</v>
+        <v>977136.9760802535</v>
       </c>
     </row>
     <row r="6">
@@ -28864,28 +28864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>656.6074492339319</v>
+        <v>750.3409196271335</v>
       </c>
       <c r="AB6" t="n">
-        <v>898.3992795181049</v>
+        <v>1026.649548938947</v>
       </c>
       <c r="AC6" t="n">
-        <v>812.6573131922044</v>
+        <v>928.667556899905</v>
       </c>
       <c r="AD6" t="n">
-        <v>656607.449233932</v>
+        <v>750340.9196271335</v>
       </c>
       <c r="AE6" t="n">
-        <v>898399.2795181049</v>
+        <v>1026649.548938947</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473781993357092e-06</v>
+        <v>2.140180546544841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.96064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>812657.3131922043</v>
+        <v>928667.556899905</v>
       </c>
     </row>
     <row r="7">
@@ -28970,28 +28970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>632.0406084539241</v>
+        <v>725.7740788471257</v>
       </c>
       <c r="AB7" t="n">
-        <v>864.7858441503746</v>
+        <v>993.0361135712167</v>
       </c>
       <c r="AC7" t="n">
-        <v>782.2518969192173</v>
+        <v>898.2621406269178</v>
       </c>
       <c r="AD7" t="n">
-        <v>632040.6084539241</v>
+        <v>725774.0788471256</v>
       </c>
       <c r="AE7" t="n">
-        <v>864785.8441503746</v>
+        <v>993036.1135712167</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.503353714629089e-06</v>
+        <v>2.183123683914846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.54976851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>782251.8969192173</v>
+        <v>898262.1406269178</v>
       </c>
     </row>
     <row r="8">
@@ -29076,28 +29076,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>615.5043570317318</v>
+        <v>700.7089340927778</v>
       </c>
       <c r="AB8" t="n">
-        <v>842.160215426606</v>
+        <v>958.7408767221746</v>
       </c>
       <c r="AC8" t="n">
-        <v>761.7856264455758</v>
+        <v>867.2399930490812</v>
       </c>
       <c r="AD8" t="n">
-        <v>615504.3570317319</v>
+        <v>700708.9340927778</v>
       </c>
       <c r="AE8" t="n">
-        <v>842160.215426606</v>
+        <v>958740.8767221746</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.521449045876754e-06</v>
+        <v>2.209401163280246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.30092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>761785.6264455757</v>
+        <v>867239.9930490813</v>
       </c>
     </row>
     <row r="9">
@@ -29182,28 +29182,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>596.2877016681787</v>
+        <v>681.4922787292246</v>
       </c>
       <c r="AB9" t="n">
-        <v>815.8671397791911</v>
+        <v>932.4478010747597</v>
       </c>
       <c r="AC9" t="n">
-        <v>738.0019250353868</v>
+        <v>843.4562916388923</v>
       </c>
       <c r="AD9" t="n">
-        <v>596287.7016681787</v>
+        <v>681492.2787292246</v>
       </c>
       <c r="AE9" t="n">
-        <v>815867.1397791911</v>
+        <v>932447.8010747597</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538903834425388e-06</v>
+        <v>2.234748466384924e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.07523148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>738001.9250353868</v>
+        <v>843456.2916388923</v>
       </c>
     </row>
     <row r="10">
@@ -29288,28 +29288,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>572.7315386782954</v>
+        <v>666.3796682169252</v>
       </c>
       <c r="AB10" t="n">
-        <v>783.6365583518665</v>
+        <v>911.7700606505107</v>
       </c>
       <c r="AC10" t="n">
-        <v>708.8473850635808</v>
+        <v>824.7520057393425</v>
       </c>
       <c r="AD10" t="n">
-        <v>572731.5386782953</v>
+        <v>666379.6682169252</v>
       </c>
       <c r="AE10" t="n">
-        <v>783636.5583518664</v>
+        <v>911770.0606505107</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550647117240982e-06</v>
+        <v>2.251801697831497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.91898148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>708847.3850635807</v>
+        <v>824752.0057393425</v>
       </c>
     </row>
     <row r="11">
@@ -29394,28 +29394,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>567.4854277464776</v>
+        <v>661.1335572851076</v>
       </c>
       <c r="AB11" t="n">
-        <v>776.4585979328735</v>
+        <v>904.592100231518</v>
       </c>
       <c r="AC11" t="n">
-        <v>702.3544791126459</v>
+        <v>818.2590997884075</v>
       </c>
       <c r="AD11" t="n">
-        <v>567485.4277464777</v>
+        <v>661133.5572851076</v>
       </c>
       <c r="AE11" t="n">
-        <v>776458.5979328735</v>
+        <v>904592.1002315179</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55454375199343e-06</v>
+        <v>2.257460270084223e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.87268518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>702354.4791126458</v>
+        <v>818259.0997884076</v>
       </c>
     </row>
     <row r="12">
@@ -29500,28 +29500,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>568.7865689323791</v>
+        <v>662.4346984710088</v>
       </c>
       <c r="AB12" t="n">
-        <v>778.2388767057215</v>
+        <v>906.3723790043658</v>
       </c>
       <c r="AC12" t="n">
-        <v>703.9648505780501</v>
+        <v>819.8694712538121</v>
       </c>
       <c r="AD12" t="n">
-        <v>568786.568932379</v>
+        <v>662434.6984710088</v>
       </c>
       <c r="AE12" t="n">
-        <v>778238.8767057215</v>
+        <v>906372.3790043659</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.554970780459451e-06</v>
+        <v>2.258080387591371e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.86689814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>703964.8505780501</v>
+        <v>819869.4712538121</v>
       </c>
     </row>
   </sheetData>
@@ -29797,28 +29797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.4589284680408</v>
+        <v>442.8468961111741</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.0910759049095</v>
+        <v>605.9226602855116</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.4129100641805</v>
+        <v>548.0942520056565</v>
       </c>
       <c r="AD2" t="n">
-        <v>357458.9284680408</v>
+        <v>442846.8961111741</v>
       </c>
       <c r="AE2" t="n">
-        <v>489091.0759049095</v>
+        <v>605922.6602855116</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685626560859524e-06</v>
+        <v>2.8098390489375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.54745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>442412.9100641805</v>
+        <v>548094.2520056565</v>
       </c>
     </row>
   </sheetData>
@@ -30094,28 +30094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.4278148218215</v>
+        <v>804.5102553068357</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.7244810504316</v>
+        <v>1100.766423798343</v>
       </c>
       <c r="AC2" t="n">
-        <v>868.1297235607468</v>
+        <v>995.7108212464075</v>
       </c>
       <c r="AD2" t="n">
-        <v>701427.8148218215</v>
+        <v>804510.2553068356</v>
       </c>
       <c r="AE2" t="n">
-        <v>959724.4810504316</v>
+        <v>1100766.423798343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344714609373227e-06</v>
+        <v>2.046530068331216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.30092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>868129.7235607468</v>
+        <v>995710.8212464075</v>
       </c>
     </row>
     <row r="3">
@@ -30200,28 +30200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.115605555594</v>
+        <v>618.3129640889763</v>
       </c>
       <c r="AB3" t="n">
-        <v>726.6958026879928</v>
+        <v>846.0030755093262</v>
       </c>
       <c r="AC3" t="n">
-        <v>657.3409752034149</v>
+        <v>765.2617293554893</v>
       </c>
       <c r="AD3" t="n">
-        <v>531115.605555594</v>
+        <v>618312.9640889763</v>
       </c>
       <c r="AE3" t="n">
-        <v>726695.8026879928</v>
+        <v>846003.0755093262</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.588272912539848e-06</v>
+        <v>2.417203062695832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.41782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>657340.9752034149</v>
+        <v>765261.7293554893</v>
       </c>
     </row>
     <row r="4">
@@ -30306,28 +30306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.2987361520571</v>
+        <v>552.6388945641953</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.588211269815</v>
+        <v>756.144916250057</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.783301281986</v>
+        <v>683.9795066992061</v>
       </c>
       <c r="AD4" t="n">
-        <v>473298.7361520571</v>
+        <v>552638.8945641953</v>
       </c>
       <c r="AE4" t="n">
-        <v>647588.211269815</v>
+        <v>756144.9162500571</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67604325930011e-06</v>
+        <v>2.550781334621096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.30092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>585783.3012819861</v>
+        <v>683979.5066992061</v>
       </c>
     </row>
     <row r="5">
@@ -30412,28 +30412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>462.5712486028856</v>
+        <v>541.9114070150238</v>
       </c>
       <c r="AB5" t="n">
-        <v>632.910389541689</v>
+        <v>741.4670945219311</v>
       </c>
       <c r="AC5" t="n">
-        <v>572.5063102591405</v>
+        <v>670.7025156763603</v>
       </c>
       <c r="AD5" t="n">
-        <v>462571.2486028856</v>
+        <v>541911.4070150238</v>
       </c>
       <c r="AE5" t="n">
-        <v>632910.3895416891</v>
+        <v>741467.0945219311</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.692856601010381e-06</v>
+        <v>2.57636967070323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.09837962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>572506.3102591404</v>
+        <v>670702.5156763603</v>
       </c>
     </row>
   </sheetData>
@@ -30709,28 +30709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>892.2380794232228</v>
+        <v>1014.560715009547</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.799503032834</v>
+        <v>1388.16672953586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1104.288111866243</v>
+        <v>1255.682045173198</v>
       </c>
       <c r="AD2" t="n">
-        <v>892238.0794232228</v>
+        <v>1014560.715009548</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220799.503032834</v>
+        <v>1388166.72953586</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176321013502069e-06</v>
+        <v>1.756142220659274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1104288.111866243</v>
+        <v>1255682.045173198</v>
       </c>
     </row>
     <row r="3">
@@ -30815,28 +30815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.634400369873</v>
+        <v>739.5437133516756</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.9124934980038</v>
+        <v>1011.876334973743</v>
       </c>
       <c r="AC3" t="n">
-        <v>794.1257572764769</v>
+        <v>915.3042777412041</v>
       </c>
       <c r="AD3" t="n">
-        <v>641634.400369873</v>
+        <v>739543.7133516755</v>
       </c>
       <c r="AE3" t="n">
-        <v>877912.4934980038</v>
+        <v>1011876.334973743</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455586176405365e-06</v>
+        <v>2.17306016882522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.50578703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>794125.7572764768</v>
+        <v>915304.2777412041</v>
       </c>
     </row>
     <row r="4">
@@ -30921,28 +30921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.1578207349351</v>
+        <v>654.8201217737982</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.219816267998</v>
+        <v>895.9537792358273</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.3749776628044</v>
+        <v>810.445208024586</v>
       </c>
       <c r="AD4" t="n">
-        <v>573157.8207349351</v>
+        <v>654820.1217737981</v>
       </c>
       <c r="AE4" t="n">
-        <v>784219.816267998</v>
+        <v>895953.7792358273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555768450085713e-06</v>
+        <v>2.322623356553985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.05324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>709374.9776628044</v>
+        <v>810445.208024586</v>
       </c>
     </row>
     <row r="5">
@@ -31027,28 +31027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>530.024979152307</v>
+        <v>611.6019393365982</v>
       </c>
       <c r="AB5" t="n">
-        <v>725.2035595279743</v>
+        <v>836.8207553736057</v>
       </c>
       <c r="AC5" t="n">
-        <v>655.9911496362121</v>
+        <v>756.9557569660549</v>
       </c>
       <c r="AD5" t="n">
-        <v>530024.9791523069</v>
+        <v>611601.9393365982</v>
       </c>
       <c r="AE5" t="n">
-        <v>725203.5595279743</v>
+        <v>836820.7553736058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609255596203186e-06</v>
+        <v>2.402474888985444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.35300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>655991.149636212</v>
+        <v>756955.7569660549</v>
       </c>
     </row>
     <row r="6">
@@ -31133,28 +31133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>496.9175716230403</v>
+        <v>586.5753225972401</v>
       </c>
       <c r="AB6" t="n">
-        <v>679.9045439506953</v>
+        <v>802.5782342544088</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.0154085280609</v>
+        <v>725.9812940027937</v>
       </c>
       <c r="AD6" t="n">
-        <v>496917.5716230402</v>
+        <v>586575.3225972401</v>
       </c>
       <c r="AE6" t="n">
-        <v>679904.5439506953</v>
+        <v>802578.2342544089</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639083877688804e-06</v>
+        <v>2.447005849399602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.98263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>615015.4085280609</v>
+        <v>725981.2940027937</v>
       </c>
     </row>
     <row r="7">
@@ -31239,28 +31239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.7584164191684</v>
+        <v>585.4161673933683</v>
       </c>
       <c r="AB7" t="n">
-        <v>678.3185366624394</v>
+        <v>800.992226966153</v>
       </c>
       <c r="AC7" t="n">
-        <v>613.5807675494209</v>
+        <v>724.5466530241538</v>
       </c>
       <c r="AD7" t="n">
-        <v>495758.4164191685</v>
+        <v>585416.1673933682</v>
       </c>
       <c r="AE7" t="n">
-        <v>678318.5366624395</v>
+        <v>800992.226966153</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.642819487893834e-06</v>
+        <v>2.452582781823386e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.9363425925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>613580.7675494209</v>
+        <v>724546.6530241538</v>
       </c>
     </row>
   </sheetData>
